--- a/Mecanical_Lift/Libraries/Excel βιβλιοθήκες/Τυποποιημένοι Θάλαμοι.xlsx
+++ b/Mecanical_Lift/Libraries/Excel βιβλιοθήκες/Τυποποιημένοι Θάλαμοι.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Mechanical Lift\Mecanical_Lift\Libraries\Excel βιβλιοθήκες\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0FED80-9A3E-4EC6-B6B7-9E03996E5F43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DF9F1E-6171-402F-AD36-1E7FC9DA4D35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Πλάτος: CW [mm]</t>
   </si>
@@ -34,12 +34,6 @@
   </si>
   <si>
     <t xml:space="preserve">Αριθμός Ατόμων: n [-] </t>
-  </si>
-  <si>
-    <t>13a</t>
-  </si>
-  <si>
-    <t>13b</t>
   </si>
 </sst>
 </file>
@@ -162,19 +156,6 @@
   <dxfs count="5">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -236,6 +217,19 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -252,16 +246,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98967F98-5693-4C7D-831D-88E447116AC0}" name="Πίνακας2" displayName="Πίνακας2" ref="B1:D21" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="4">
-  <autoFilter ref="B1:D21" xr:uid="{947DAE48-20A3-4F2A-A48E-9FE8E070C7DC}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98967F98-5693-4C7D-831D-88E447116AC0}" name="Πίνακας2" displayName="Πίνακας2" ref="B1:D20" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="B1:D20" xr:uid="{947DAE48-20A3-4F2A-A48E-9FE8E070C7DC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{24A72818-29A6-4271-87E8-523C25CB1969}" name="Αριθμός Ατόμων: n [-] " dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{80655058-6502-48CB-BF01-ADE6D13329FA}" name="Πλάτος: CW [mm]" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{874CB772-33BE-43FA-836F-339F0FA26E4A}" name="Βάθος: CD [mm]" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{24A72818-29A6-4271-87E8-523C25CB1969}" name="Αριθμός Ατόμων: n [-] " dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{80655058-6502-48CB-BF01-ADE6D13329FA}" name="Πλάτος: CW [mm]" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{874CB772-33BE-43FA-836F-339F0FA26E4A}" name="Βάθος: CD [mm]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -530,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D21"/>
+  <dimension ref="B1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,8 +661,8 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>3</v>
+      <c r="B12" s="5">
+        <v>13</v>
       </c>
       <c r="C12" s="2">
         <v>1100</v>
@@ -678,33 +672,33 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>4</v>
+      <c r="B13" s="5">
+        <v>14</v>
       </c>
       <c r="C13" s="2">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="D13" s="2">
-        <v>1600</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
         <v>1300</v>
       </c>
       <c r="D14" s="2">
-        <v>1900</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="D15" s="2">
         <v>2000</v>
@@ -712,67 +706,56 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2">
         <v>1350</v>
       </c>
       <c r="D16" s="2">
-        <v>2000</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2">
         <v>1350</v>
       </c>
       <c r="D17" s="2">
-        <v>2250</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2">
-        <v>1350</v>
+        <v>1400</v>
       </c>
       <c r="D18" s="2">
-        <v>2350</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2">
         <v>1400</v>
       </c>
       <c r="D19" s="2">
-        <v>2400</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="5">
-        <v>21</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1400</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="7">
+      <c r="B20" s="7">
         <v>24</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C20" s="4">
         <v>1500</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D20" s="4">
         <v>2500</v>
       </c>
     </row>
